--- a/student_intervention/manual_calculation.xlsx
+++ b/student_intervention/manual_calculation.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15040" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15040" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="pivot" sheetId="5" r:id="rId1"/>
     <sheet name="regra de 3" sheetId="6" r:id="rId2"/>
     <sheet name="raw" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">raw!$A$1:$AF$396</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7201" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7241" uniqueCount="130">
   <si>
     <t>school</t>
   </si>
@@ -316,6 +317,117 @@
   <si>
     <t>0.8095</t>
   </si>
+  <si>
+    <t>0.8736</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>0.0066</t>
+  </si>
+  <si>
+    <t>0.0007</t>
+  </si>
+  <si>
+    <t>0.8400</t>
+  </si>
+  <si>
+    <t>Gaussian Naive Bayes</t>
+  </si>
+  <si>
+    <t>Pros</t>
+  </si>
+  <si>
+    <t>It is easy and fast to predict class of test data set. It also perform well in multi class prediction</t>
+  </si>
+  <si>
+    <t>cons</t>
+  </si>
+  <si>
+    <t>Applications:</t>
+  </si>
+  <si>
+    <t>To mark an email as spam, or not spam ?</t>
+  </si>
+  <si>
+    <t>Classify a news article about technology, politics, or sports ?</t>
+  </si>
+  <si>
+    <t>Check a piece of text expressing positive emotions, or negative emotions?</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>Is does not work well with large dataset</t>
+  </si>
+  <si>
+    <t>Spent a lot of time to train the model</t>
+  </si>
+  <si>
+    <t>it does not work with noise dataset</t>
+  </si>
+  <si>
+    <t>It work well with noised dataset</t>
+  </si>
+  <si>
+    <t>text (and hypertext) categorization</t>
+  </si>
+  <si>
+    <t>image classification</t>
+  </si>
+  <si>
+    <t>bioinformatics (Protein classification, Cancer classification)</t>
+  </si>
+  <si>
+    <t>hand-written character recognition</t>
+  </si>
+  <si>
+    <t>It works really well with clear margin of separation</t>
+  </si>
+  <si>
+    <t>It is effective in high dimensional spaces.</t>
+  </si>
+  <si>
+    <t>It uses a subset of training points in the decision function</t>
+  </si>
+  <si>
+    <t>Decision Trees</t>
+  </si>
+  <si>
+    <t>Data classification without much calculations</t>
+  </si>
+  <si>
+    <t>Dealing with noisy or incomplete data</t>
+  </si>
+  <si>
+    <t>Comprehensibility so that can be used in Rule Generation problem</t>
+  </si>
+  <si>
+    <t>Handling both continuous and discrete data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The high classification error rate while training set is small in comparison with the number of classes</t>
+  </si>
+  <si>
+    <t>Exponential calculation growth while problem is getting bigger.</t>
+  </si>
+  <si>
+    <t>Need to discrete data for some particular construction algorithm</t>
+  </si>
+  <si>
+    <t>Forecasting book , predict the future use of books in a library</t>
+  </si>
+  <si>
+    <t>Learning to the task of distinguishing between stars and cosmic rays in images collected by the Hubble Space Telescope.</t>
+  </si>
+  <si>
+    <t>If categorical variable has a category (in test data set), which was not observed in training data set, then model will assign a 0 (zero) probability and will be unable to make a prediction. This is often known as “Zero Frequency”. To solve this, we can use the smoothing technique. One of the simplest smoothing techniques is called Laplace estimation.</t>
+  </si>
+  <si>
+    <t>On the other side naive Bayes is also known as a bad estimator, so the probability outputs frompredict_proba are not to be taken too seriously.</t>
+  </si>
 </sst>
 </file>
 
@@ -345,12 +457,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -385,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -402,6 +520,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -54060,10 +54182,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -54075,12 +54197,12 @@
     <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>56</v>
       </c>
@@ -54097,7 +54219,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>100</v>
       </c>
@@ -54114,7 +54236,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>200</v>
       </c>
@@ -54131,7 +54253,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>300</v>
       </c>
@@ -54148,12 +54270,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>56</v>
       </c>
@@ -54170,7 +54292,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>100</v>
       </c>
@@ -54187,7 +54309,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>200</v>
       </c>
@@ -54204,7 +54326,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>300</v>
       </c>
@@ -54221,77 +54343,275 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12">
+        <v>395</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>200</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>300</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20">
+        <v>395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="98.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>100</v>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="9">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>200</v>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>300</v>
-      </c>
-      <c r="C17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>92</v>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/student_intervention/manual_calculation.xlsx
+++ b/student_intervention/manual_calculation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15040" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15040" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="pivot" sheetId="5" r:id="rId1"/>
@@ -17,13 +17,17 @@
     <sheet name="raw" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">raw!$A$1:$AF$396</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7241" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7249" uniqueCount="130">
   <si>
     <t>school</t>
   </si>
@@ -503,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -523,6 +527,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,7 +560,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -672,6 +678,461 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Model</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$9:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>DecisionTreeClassifier</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GaussianNB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SVC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$9:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.6942</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7463</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$9:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>DecisionTreeClassifier</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GaussianNB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SVC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.7132</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7647</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$9:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>DecisionTreeClassifier</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GaussianNB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SVC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$E$9:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.7167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7826</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="195987088"/>
+        <c:axId val="195988864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="195987088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="195988864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="195988864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="195987088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -740,6 +1201,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1298,6 +1799,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1331,6 +2337,110 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>100</v>
+          </cell>
+          <cell r="D8">
+            <v>200</v>
+          </cell>
+          <cell r="E8">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>DecisionTreeClassifier</v>
+          </cell>
+          <cell r="C9">
+            <v>0.69420000000000004</v>
+          </cell>
+          <cell r="D9">
+            <v>0.71319999999999995</v>
+          </cell>
+          <cell r="E9">
+            <v>0.7167</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>GaussianNB</v>
+          </cell>
+          <cell r="C10">
+            <v>0.74809999999999999</v>
+          </cell>
+          <cell r="D10">
+            <v>0.71319999999999995</v>
+          </cell>
+          <cell r="E10">
+            <v>0.75</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>SVC</v>
+          </cell>
+          <cell r="C11">
+            <v>0.74629999999999996</v>
+          </cell>
+          <cell r="D11">
+            <v>0.76470000000000005</v>
+          </cell>
+          <cell r="E11">
+            <v>0.78259999999999996</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54453,7 +55563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -54617,4 +55727,139 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>0.74809999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="E3">
+        <v>0.69420000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>0.71319999999999995</v>
+      </c>
+      <c r="D4">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="E4">
+        <v>0.71319999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>300</v>
+      </c>
+      <c r="C5">
+        <v>0.75</v>
+      </c>
+      <c r="D5">
+        <v>0.78259999999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.7167</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>0.69420000000000004</v>
+      </c>
+      <c r="D9">
+        <v>0.71319999999999995</v>
+      </c>
+      <c r="E9">
+        <v>0.7167</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10">
+        <v>0.74809999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.71319999999999995</v>
+      </c>
+      <c r="E10">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11">
+        <v>0.74629999999999996</v>
+      </c>
+      <c r="D11">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="E11">
+        <v>0.78259999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>